--- a/templates/dataplant/MIAPPE/MIAPPE_-_Observation_unit_and_sample/MIAPPE_-_Observation_unit_and_sample_v1.0.3.xlsx
+++ b/templates/dataplant/MIAPPE/MIAPPE_-_Observation_unit_and_sample/MIAPPE_-_Observation_unit_and_sample_v1.0.3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -83,6 +83,9 @@
     <t>growth</t>
   </si>
   <si>
+    <t>Phenomics</t>
+  </si>
+  <si>
     <t>Tags Term Accession Number</t>
   </si>
   <si>
@@ -242,13 +245,13 @@
     <t>PO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/PO_0025094</t>
+    <t>https://www.ebi.ac.uk/ols4/ontologies/po/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FPO_0025094</t>
   </si>
   <si>
     <t>whole plant</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/PO_0000003</t>
+    <t>https://www.ebi.ac.uk/ols4/ontologies/po/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FPO_0000003</t>
   </si>
   <si>
     <t>2005-08-15T15:52:01+00:00</t>
@@ -653,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -734,7 +737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -750,120 +753,123 @@
       <c r="E13" t="s">
         <v>22</v>
       </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -879,126 +885,126 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" t="s">
         <v>76</v>
       </c>
-      <c r="N2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" t="s">
-        <v>75</v>
-      </c>
       <c r="P2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
